--- a/YOUCANRUNFOREVER_SCRIPT_VOe/YOU CAN'T RUN FOREVER_SCRIPT_VO-recap.xlsx
+++ b/YOUCANRUNFOREVER_SCRIPT_VOe/YOU CAN'T RUN FOREVER_SCRIPT_VO-recap.xlsx
@@ -37,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -51,15 +51,45 @@
       <top style="thin"/>
       <bottom style="thin"/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -425,7 +455,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D24"/>
+  <dimension ref="A1:D35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,260 +466,245 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>#Role</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Lignes</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Nb charactères</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Répliques</t>
-        </is>
-      </c>
+          <t>YOU CAN'T RUN FOREVER_SCRIPT_VO</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="2" t="n"/>
+      <c r="D1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>1 - FRED</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>5</v>
-      </c>
-      <c r="C2" t="n">
-        <v>78</v>
-      </c>
-      <c r="D2" t="n">
-        <v>2</v>
+          <t xml:space="preserve">Length: </t>
+        </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2 - RUTH</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>1</v>
-      </c>
-      <c r="C3" t="n">
-        <v>1</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1</v>
+          <t>Role</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Line count</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Characters</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Blocks</t>
+        </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>3 - SONG</t>
+          <t>1 - BURLY MAN</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>94</v>
+        <v>12</v>
       </c>
       <c r="C4" t="n">
-        <v>3066</v>
+        <v>189</v>
       </c>
       <c r="D4" t="n">
-        <v>77</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>4 - JENNY</t>
+          <t>2 - FRED</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>208</v>
+        <v>7</v>
       </c>
       <c r="C5" t="n">
-        <v>4455</v>
+        <v>154</v>
       </c>
       <c r="D5" t="n">
-        <v>112</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>5 - EDDIE</t>
+          <t>3 - RUTH</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>75</v>
+        <v>2</v>
       </c>
       <c r="C6" t="n">
-        <v>1634</v>
+        <v>42</v>
       </c>
       <c r="D6" t="n">
-        <v>41</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>6 - MIRANDA</t>
+          <t>4 - WADE</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>202</v>
+        <v>181</v>
       </c>
       <c r="C7" t="n">
-        <v>4151</v>
+        <v>4192</v>
       </c>
       <c r="D7" t="n">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>7 - WADE</t>
+          <t>5 - SONG</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>180</v>
+        <v>94</v>
       </c>
       <c r="C8" t="n">
-        <v>4156</v>
+        <v>2724</v>
       </c>
       <c r="D8" t="n">
-        <v>104</v>
+        <v>69</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>8 - EMILY</t>
+          <t>6 - JENNY</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>90</v>
+        <v>208</v>
       </c>
       <c r="C9" t="n">
-        <v>1951</v>
+        <v>4488</v>
       </c>
       <c r="D9" t="n">
-        <v>49</v>
+        <v>113</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>9 - SALLY</t>
+          <t>7 - EDDIE</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>12</v>
+        <v>75</v>
       </c>
       <c r="C10" t="n">
-        <v>292</v>
+        <v>1646</v>
       </c>
       <c r="D10" t="n">
-        <v>8</v>
+        <v>42</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>10 - OPERATOR</t>
+          <t xml:space="preserve">8 - MIRANDA </t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>5</v>
+        <v>203</v>
       </c>
       <c r="C11" t="n">
-        <v>80</v>
+        <v>4159</v>
       </c>
       <c r="D11" t="n">
-        <v>2</v>
+        <v>104</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>11 - TIMMY</t>
+          <t>9 - EMILY</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="C12" t="n">
-        <v>54</v>
+        <v>1959</v>
       </c>
       <c r="D12" t="n">
-        <v>2</v>
+        <v>49</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>12 - JIMMY</t>
+          <t>10 - SALLY</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="C13" t="n">
-        <v>42</v>
+        <v>316</v>
       </c>
       <c r="D13" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>13 - DISPATCHER</t>
+          <t>11 - OPERATOR</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C14" t="n">
-        <v>189</v>
+        <v>101</v>
       </c>
       <c r="D14" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>14 - TODD</t>
+          <t>12 - TIMMY</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>71</v>
+        <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>1418</v>
+        <v>63</v>
       </c>
       <c r="D15" t="n">
-        <v>36</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>15 - NANCY</t>
+          <t>13 - JIMMY</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C16" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="D16" t="n">
         <v>2</v>
@@ -698,78 +713,78 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>16 - CHUCK</t>
+          <t>14 - DISPATCHER</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C17" t="n">
-        <v>388</v>
+        <v>202</v>
       </c>
       <c r="D17" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>17 - DAVIS</t>
+          <t>15 - TODD</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>9</v>
+        <v>71</v>
       </c>
       <c r="C18" t="n">
-        <v>127</v>
+        <v>1427</v>
       </c>
       <c r="D18" t="n">
-        <v>4</v>
+        <v>36</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>18 - CARLEIGH</t>
+          <t>16 - NANCY</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="C19" t="n">
-        <v>389</v>
+        <v>75</v>
       </c>
       <c r="D19" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>19 - PARKER</t>
+          <t>17 - CHUCK</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="C20" t="n">
-        <v>69</v>
+        <v>397</v>
       </c>
       <c r="D20" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>20 - BEN</t>
+          <t>18 - FORENSICS OFFICER</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C21" t="n">
-        <v>238</v>
+        <v>206</v>
       </c>
       <c r="D21" t="n">
         <v>6</v>
@@ -778,52 +793,232 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>21 - STUDENT</t>
+          <t>19 - RANGER SULLIVAN</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C22" t="n">
-        <v>1</v>
+        <v>59</v>
       </c>
       <c r="D22" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>22 - MIGUEL</t>
+          <t>20 - DAVIS</t>
         </is>
       </c>
       <c r="B23" t="n">
+        <v>9</v>
+      </c>
+      <c r="C23" t="n">
+        <v>157</v>
+      </c>
+      <c r="D23" t="n">
         <v>4</v>
-      </c>
-      <c r="C23" t="n">
-        <v>79</v>
-      </c>
-      <c r="D23" t="n">
-        <v>2</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>23 - MEDIC</t>
+          <t>21 - CARLEIGH</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="C24" t="n">
-        <v>43</v>
+        <v>416</v>
       </c>
       <c r="D24" t="n">
-        <v>2</v>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>22 - PARKER</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>7</v>
+      </c>
+      <c r="C25" t="n">
+        <v>89</v>
+      </c>
+      <c r="D25" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>23 - BEN</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>12</v>
+      </c>
+      <c r="C26" t="n">
+        <v>260</v>
+      </c>
+      <c r="D26" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>24 - RANGER STEVENS</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>13</v>
+      </c>
+      <c r="C27" t="n">
+        <v>322</v>
+      </c>
+      <c r="D27" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>25 - OFFICER MONROE</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>2</v>
+      </c>
+      <c r="C28" t="n">
+        <v>26</v>
+      </c>
+      <c r="D28" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>26 - STUDENT</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>1</v>
+      </c>
+      <c r="C29" t="n">
+        <v>32</v>
+      </c>
+      <c r="D29" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>27 - LOUISE</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>10</v>
+      </c>
+      <c r="C30" t="n">
+        <v>314</v>
+      </c>
+      <c r="D30" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>28 - MIGUEL</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>4</v>
+      </c>
+      <c r="C31" t="n">
+        <v>86</v>
+      </c>
+      <c r="D31" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>29 - MEDIC</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>2</v>
+      </c>
+      <c r="C32" t="n">
+        <v>69</v>
+      </c>
+      <c r="D32" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>30 - JENNY AND EMILY</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>3</v>
+      </c>
+      <c r="C33" t="n">
+        <v>45</v>
+      </c>
+      <c r="D33" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>31 - MIRANDA AND JENNY</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>2</v>
+      </c>
+      <c r="C34" t="n">
+        <v>53</v>
+      </c>
+      <c r="D34" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>32 - MAIN TITLE</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>1</v>
+      </c>
+      <c r="C35" t="n">
+        <v>21</v>
+      </c>
+      <c r="D35" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:D2"/>
+  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>